--- a/output/output_bert.xlsx
+++ b/output/output_bert.xlsx
@@ -384,10 +384,8 @@
           <t>jab sunday ko team india se pakistan takrayega tab stadium me sirf tringa laherayega #cwc15 #indvspak #worldcup http://t.co/dfhwom137b</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -396,10 +394,8 @@
           <t>@narendramodi #ShutDownJNU we need education but not against nation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -408,10 +404,8 @@
           <t>#maukepechauka! india vs uae - india wins now turn for uae mauka mauka starsport ads. #indvssa, #indvsuae, #cwc15 http://t.co/kaimvazi2z</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +414,8 @@
           <t>#indvsuae bhubaneswar kumar is back and</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -432,10 +424,8 @@
           <t>#ShutDownJNU JNU IS THE NURSERY OF ANTI-NATIONALS AND TERRORIST-LOVERS. KEEP IT TRENDING! LET THESE TRAITORS KNOW, THEIR GAME IS OVER.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -444,10 +434,8 @@
           <t>They are fasting unto death! #StandwithJNU #StandforJNU #WithyouJNU http:// fb.me/7Qx6LZfP2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -456,10 +444,8 @@
           <t>#shutdownJNU Police act shd hve been earlier &amp;not let ghero"go on?Our law &amp;order/Govt indecisive unable2 handle precipitating situations"</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -468,10 +454,8 @@
           <t>@compareraja wow i won with india... india india india india #cricketcompare #indvspak</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -480,10 +464,8 @@
           <t>@Ramesh70739140 #ShutDownJNU they are dalit, surviving on quota and has problems with India.. They think they are owner of India.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -492,10 +474,8 @@
           <t>#ShutDownJNU #JNURow #JNU morons but have whole lot of free time for #antinationalacts #sexscandals #drugrackets and all...7/n</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -504,10 +484,8 @@
           <t>tamil guy dismissing malyalam guy #indvsuae #ashwin #karate</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -516,10 +494,8 @@
           <t>dear @AamAadmiParty throw ur senseless trends #AAPVictoryDay ...support nationalist trends #ShutDownJNU .... @ArvindKejriwal @DrKumarVishwas</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -528,10 +504,8 @@
           <t>@kanhaiyajnusu @smritiirani kanhaiya you are not alone don't botherd about these SANGHI'S we are with you #StandWithJNU #JNU</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -540,10 +514,8 @@
           <t>We want tweet from @narendramodi @BJPRajnathSingh @manoharparrikar @KirenRijiju @arunjaitley @Ajit_Dobhal @smritiirani #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +524,8 @@
           <t>13 days of hunger strike and he couldn't handle twenty mins of heat. #StandWithJNU https:// kafila.org/2016/05/10/run -jaggu-run-the-jnu-vc-runs-away-from-the-academic-council-meeting/ …</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -564,10 +534,8 @@
           <t>shikhar dawan at half century. scorecard-110/1 #indvspak chak de indiawaale</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -576,10 +544,8 @@
           <t>@waglenikhil pls use #ShutDownJNU and show ur patriotism</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -588,10 +554,8 @@
           <t>University is supposed to be a place to study but communists has made JNU n many like universities a political field #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -600,10 +564,8 @@
           <t>More power to you JNU . #StandWithJNU #RejectHLEC #BJPKillsDemocracy pic.twitter.com/ATbPL4Qa4t</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -612,10 +574,8 @@
           <t>abhi bhi 1 hundred k liye wait krna pdega misbah gone #indvspak</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -624,10 +584,8 @@
           <t>@DelhiPolice - What is stopping u from arresting the ppl chanting Anti India slogans at JNU? Pls act swiftly and arrest them. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -636,10 +594,8 @@
           <t>we need a 10 wicket win #indvsuae</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -648,10 +604,8 @@
           <t>3rd consecutive victory...yayyaayyy...:d #wontgiveitback #indvsuae</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -660,10 +614,8 @@
           <t>kohli termed as :"barack" kohli from pak team :) #indvspak</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -672,10 +624,8 @@
           <t>#ShutDownJNU @smritiirani if they can't learn anything then it's up to us to teach them morals and respect . They are cancer shud be remvd</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -684,10 +634,8 @@
           <t>#ShutDownJNU As v cn c dat #JNU z continusly in prblm,v urge Govt. to shut it down bcoz diseased body part shud b removed by surgery.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -696,10 +644,8 @@
           <t>#ShutDownJNU Don't turn your eyes.. 4 the sake of vote bank politics see reality of emerging current divide. pic.twitter.com/hb6wx3nIa8</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -708,10 +654,8 @@
           <t>#ShutDownJNU don't waste taxpayers money for people like these #shutdownjnu</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -720,10 +664,8 @@
           <t>#ShutDownJNU don't be surprised if umar Khalid leaves India joins isis dies in a blast &amp; candle March is held in jnu as shaheed umarkhalid</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -732,10 +674,8 @@
           <t>pakistaniyo so jao, we're going to set u on fire tomorrow. kal india diwali manayegi. #indvspak</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -744,10 +684,8 @@
           <t>The continued media radio silence over the JNU students' hunger strike is tragic. #FightBackJNU #StandwithJNU https:// twitter.com/kafila/status/ 729601373000454148 …</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -756,10 +694,8 @@
           <t>@NupurSharmaBJP @TimesNow @thenewshour Many time when the anit national were speaking. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -768,10 +704,8 @@
           <t>#NSUIAgainstIndia #ShutDownJNU Freedom of speech is crossing line, spreading hatred against ppl ! @sambitswaraj @Swamy39</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -780,10 +714,8 @@
           <t>#indvspak dhoni steps in. c'mon india.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -792,10 +724,8 @@
           <t>ind vs wi mauka mauka latest add....lolz: http://t.co/ycigjylxuf @cricketworldcup @icclive #indvsuae #pakvszim #srlveng #slvseng #kp</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -804,10 +734,8 @@
           <t>#ShutDownJNU For @TimesNow students chanting afzal guru is dissident"?? Os this an option? Shame! https:// twitter.com/TimesNow/statu s/697403553107697665 …"</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -816,10 +744,8 @@
           <t>@sethuactor what is the need of speed boat,,when i can piss and drown them :D #ShutDownJNU Salo ko Moot ke baha doonga... #MutraProtestJNU</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -828,10 +754,8 @@
           <t>indiaaaaa india :d :* wewon again :3 #kohli #dhawan #raina #captioncool &amp;lt;3 #cwc15 #indvspak #wewontgiveitback http://t.co/eziixkkumf</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -840,10 +764,8 @@
           <t>@IAMSUNNYDEOL take a bow paaji.... millions #respect to you, you nail it.. 100/100 for #GhayalOnceAgain #AAPVictoryDay #shutdownJNU</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -852,10 +774,8 @@
           <t>rt @rajat_skfan: hahaha new add by @starsportsindia for #indvsuae !! https://t.co/iqhs34ggox mindblowingggg</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -864,10 +784,8 @@
           <t>#JNU runs by my money and your money .. And I don't want my money to get spent on few toxic fucking anti-nationalists #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -876,10 +794,8 @@
           <t>when you're up at 3 in the morning to watch india play cricket #indvsuae</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -888,10 +804,8 @@
           <t>#indvsuae sala colg se anne tak to india jeet bhi gaya.. shame on u uae..</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -900,10 +814,8 @@
           <t>sir jadeja strikes again. shehzad out #indvspak</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -912,10 +824,8 @@
           <t>rt @vksisodiya: waah bhai! gajab gajab! @fakingnews ok, india needs 1712 runs to win - uae #indvsuae http://t.co/yd4w5nffyj</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -924,10 +834,8 @@
           <t>#ShutDownJNU THOSE LEFTIST PIGS JUST CHUCKLED AND SMIRKED, ON THE THOUGHT OF BREAKING INDIA.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -936,10 +844,8 @@
           <t>#JNU to teach Nehru's ideology to students (Ref. JNU constitution) Today they (students) want #India 's Barbaadi. Kuch samjhe? #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -948,10 +854,8 @@
           <t>wickets are falling faster than updates, lol #indvsuae</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -960,10 +864,8 @@
           <t>both delhi batsmen making 100. aap bhakts: kejriwal revolution. #indvspak #copy.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -972,10 +874,8 @@
           <t>Now it's time to wait &amp; see whether our supreme court can take this as Suo-Moto Cognizance CASE OF SEDITION (SEC 124-A) #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -984,10 +884,8 @@
           <t>yes I #StandwithJNU &amp; for JNU to survive, student shud call off thr protest becoz i don't think in #HLC rec will b revoked</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -996,10 +894,8 @@
           <t>Time has cone for #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1008,10 +904,8 @@
           <t>Racist* In Delhi, both professors and students are persecuted for speaking against BJP govt. #StandWithJNU https:// twitter.com/Real_Devil_Guy /status/730609409810944001 …</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1020,10 +914,8 @@
           <t>#indvsuae s jus for a formality :) kudos to #india in advance :) better do watch #ausvnz</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1032,10 +924,8 @@
           <t>abe worldcup match hai ya 3 ghante ki movie. #indvsuae</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1044,10 +934,8 @@
           <t>Time and time again it has been proven that award wapsi was completely bogus. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B57" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1056,10 +944,8 @@
           <t>JNU allow event 2 celebrate terrorist,slogans of destroying India &amp; India is intolerant wish I had an award for #AwardWapsi #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1068,10 +954,8 @@
           <t>Hauz khas vilage where alcohol is common #rapeculture #shutdownjnu http://www. deccanherald.com/content/592546 /jnu-student-raped-2-afghan.html …</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1080,10 +964,8 @@
           <t>#ShutDownJNU SHUTDOWN JNU &amp; STOP MISUSING OF TAXPAYERS MONEY&gt;</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1092,10 +974,8 @@
           <t>@joydas @jhunjhunwala @ranvirshorey that mild buranamaanoholihai type feeling #indvspak</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1104,10 +984,8 @@
           <t>waiting for new #maukamauka advt @starsportsindia #cwc2015 #indvsuae</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1116,10 +994,8 @@
           <t>shahid ho gaya shaeed....! go india xd #bleedblue #indvspak</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1128,10 +1004,8 @@
           <t>#ShutDownJNU #shameonjnu these ppl called themselves Indian students. Thy nt deserve to be called as Indian.. @SirJadejaaaa @TroluKejri https:// twitter.com/IndianExpress/ status/786185671631175680 …</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1140,10 +1014,8 @@
           <t>suna hai uae ko follow on milega... #indvsuae</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1152,10 +1024,8 @@
           <t>akmal is trolling pakistanis lol #indvspak</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1034,8 @@
           <t>@AnupamPkher @chetan_bhagat Need support for Jnu incident. Raise your voice. Don't sleep #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1044,8 @@
           <t>#shutdownJNU IS ONLY THE OPTION https:// twitter.com/DrGarekar/stat us/794476286844358656 …</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1054,8 @@
           <t>#aus all-round performance in #worldcup2015 1-win 1-draw 1-lost cooling heals at 4th place #ouch #egohurts #indvsuae #ausvsnz</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1200,10 +1064,8 @@
           <t>umya is besht..best is umya!!! he he :d #umeshyadav #indvspak 2 wickets yayaya</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1212,10 +1074,8 @@
           <t>bach gaya sala. by an inch. #indvspak</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1224,10 +1084,8 @@
           <t>JUN Communists wants to practice every constitution right but don't want to practice social responsibility &amp; duties. #Libtards #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1094,8 @@
           <t>#StandwithJNU , so that #India 's brightest of #students like Umar &amp; Anirban remain alive to stand with you: https:// youtu.be/-f1dwnJr7mA #mustwatch</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1248,10 +1104,8 @@
           <t>It is sadng 2 see d mst peacfull religion of d wrld getting maligned by its own ppl plz stop protest hangng of #flashpointafzal #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1260,10 +1114,8 @@
           <t>ek aour out . lololol ... #indvsuae</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1272,10 +1124,8 @@
           <t>Jawaharlal Nehru was successor of #Mugal planned Barbadi of India -todays JNU traitors want to continue same Barbadi of India. #ShutDownJNU"</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1284,10 +1134,8 @@
           <t>#indvsuae will last shorter than #badlapur movie, but surely is more interesting</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -1296,10 +1144,8 @@
           <t>rt @miss_woww: dear uae! don't worry. india has been kind to pakistan &amp;amp; sa too. sabko batting karne ka mauka milega. #indvsuae</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -1308,10 +1154,8 @@
           <t>no. they may end up playing well. ahankaar nahi aana chahiye #kejristyle #indvsuae</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -1320,10 +1164,8 @@
           <t>haahahahahaha wait hahahahahaha rofl hahahahaha rt @cerebralriot: found this gem. #indvspak #wc2015 http://t.co/vyl57gan2v</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1332,10 +1174,8 @@
           <t>Im sure somewere in JNU Pakistan ISI pimps are hiding and we have to check JNU funding also #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1344,10 +1184,8 @@
           <t>hahahaha.... yes!! it is toi-let #indvsuae #cwc15 http://t.co/mcyt0mjb7a</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1356,10 +1194,8 @@
           <t>mumbai ranji player swapnil patil will play against india #cricketworldcup #indvsuae</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1368,10 +1204,8 @@
           <t>in all 6 matches of wc, pak nvr made team india all-out! india made pak all-out 4 tyms in wc(1992,99,2011 &amp;amp; 15)..! #indvspak #cantbeatindia</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1380,10 +1214,8 @@
           <t>uae ka oneday mei lowest score 102 hai aur india ka 54 :) #amazing #indvsuae</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -1392,10 +1224,8 @@
           <t>finally, time to move on to the other game. #indvsuae #cwc15</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1404,10 +1234,8 @@
           <t>#indvspak #cwc15 cuts short's adadam lo #raina ki #raina ay poti 👌</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1416,10 +1244,8 @@
           <t>rt @abreshmina: ooooo... lbw appeal but wasn't given an out .. #indvsuae 3 overs done .. uae 12-1</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -1428,10 +1254,8 @@
           <t>#indvspak #cwc15 come on india roklo #pakistan ko or apni lead ko 6-0 banado #india come on india, india.... india.... india...</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1440,10 +1264,8 @@
           <t>These anti nationalists just want to destabilize india.so destabilize these anti nationals,act strongly and harshly.. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1452,10 +1274,8 @@
           <t>1st drop of the world cup for india..!! #indvsuae</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1464,10 +1284,8 @@
           <t>People who don't trust Indian Constitution and law n order should either leave India or should be thrown out of India #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1476,10 +1294,8 @@
           <t>JNU student from Manipur found dead in his hostel room, body taken for post mortem, details awaited #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1488,10 +1304,8 @@
           <t>@bhak_sala well NDA=/=JNU: JNU is being opposed 4 antinational activities, #ShutDownJNU NDA pass out will get degree from better place</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1500,10 +1314,8 @@
           <t>why #ShutDownJNU not showing in suggestions? is Twitter run by some liberal?</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1512,10 +1324,8 @@
           <t>@madam_robena abhi to start hi kiya kohli ny.... abhi dekhna.... dhammaaaaalllllllll #indvspak #pakvsind</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1524,10 +1334,8 @@
           <t>BJP, Nationalist are trending #ShutDownJNU and Gan*** of @AamAadmiParty are busy in #AAPVictoryDay #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1536,10 +1344,8 @@
           <t>India so tolerant dat is tolerating bleeding intolerants. Can u expect dis in any nation? Evn country like Bhutan would nevr b. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1548,10 +1354,8 @@
           <t>Tragedy with anti national elements is that take the people of Indian for granted #ShutDownJNU #BoycottAAP https:// twitter.com/ranjanagra11/s tatus/697483873366585344 …</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1560,10 +1364,8 @@
           <t>Nothing new this has been going on for several years in JNU. this is for the first time such things are coming out in public. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1572,10 +1374,8 @@
           <t>@freeforfrndz @kriti87mishra ghamandi kon ha... uae ya ind #indvsuae</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -1584,10 +1384,8 @@
           <t>rt @advancedmaushi: as per virat kohli that was a "bhak teri maa ka bhos**" catch #indvspak</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1596,10 +1394,8 @@
           <t>#captains who won #indvspak wc clash: 1992: azharudin 1996: azharudin 1999: azharudin 2003: gnguly 2011: dhoni 2015: dhoni #wc15</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1608,10 +1404,8 @@
           <t>JNU to be renamed as RBNU (Raah Bhatkey Naujawan University) #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1620,10 +1414,8 @@
           <t>Why isn't there anymore news on. The jnu hunger strike isn't imp to da media anymore i #StandWithJNU</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1632,10 +1424,8 @@
           <t>kal to india ka practice match hai.. #indvsuae #iccworldcup2015 let see kal kon kon century marega..!! 😂😂😜😉😁😀😀</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1644,10 +1434,8 @@
           <t>missing shewag &amp;amp; ghambhir #indvspak</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1656,10 +1444,8 @@
           <t>keep calm and support team india india..india..india..india..india.. #bleedblue #wontgiveitback #indvsuae #cwc15</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1668,10 +1454,8 @@
           <t>@amritabhinder: protest outside delhi cm arvind kejriwal’s house over jhuggi demolition http://t.co/jfflud8jkx #kejriuturns #indvspak</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1680,10 +1464,8 @@
           <t>I do not want my money to be used for JNU Naxalites and Jihadis #ShutDownJNU @smritiirani @narendramodi @arunjaitley</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1692,10 +1474,8 @@
           <t>Speaking against Anti-national JNU" is proof of fascism, speaking against India is Freedom of Expression? #ShutDownJNU"</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1704,10 +1484,8 @@
           <t>@russelarnold69 namma match ku commentary pannaleiya #indvspak</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1716,10 +1494,8 @@
           <t>@mumbai_chokari do ✌ delhi walo ko 😎 out krne me inke loudey lag gaye 😝 or madarchodo 😴 ko kashmir chahiye 😂 #pakistan #india #indvspak</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1728,10 +1504,8 @@
           <t>@deepak_says hahahaha bt jeetegi to ind hi ❤❤ #indvsuae</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1740,10 +1514,8 @@
           <t>This is d jnu campus in Delhi. People soughting slogan against India #ShutDownJnu https:// twitter.com/malviyamit/sta tus/697487731081883648 …</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -1752,10 +1524,8 @@
           <t>live: openers give solid start to indian run chase live scorecard: http://t.co/ab9juihhhw #indvsuae #cwc15</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1764,10 +1534,8 @@
           <t>Stand with jnu #standwithjnu #queer #supporter #spread the #word https:// twitter.com/akhilkatyal/st atus/729599936338268160 …</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1776,10 +1544,8 @@
           <t>chandu532: rt missiondelhi45: chandu532: ddnewslive: #uhf #indvspak: ravindra jadeja takes umar akmal's (0) wicket. pakistan 105/5 in 25 ov…</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1788,10 +1554,8 @@
           <t>_ #ShutdownJNU movement necessary...enough is enough</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -1800,10 +1564,8 @@
           <t>wicket! a raffaelo (0) is out, c ms dhoni b umesh yadav, 7/1 #indvsuae #cwc15</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1812,10 +1574,8 @@
           <t>ra-ha-ne crease pe raha-nahi #indvspak #bleedblue</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1824,10 +1584,8 @@
           <t>hahahahah "@im_atchu: #indvsuae #waca http://t.co/foll2m06bd oh my god</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1836,10 +1594,8 @@
           <t>Before JNU Becomes Jihadi Nurturing University #ShutDownJNU .</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1848,10 +1604,8 @@
           <t>a few months back we had called on to #shutdownjnu , whether it is done ?</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -1860,10 +1614,8 @@
           <t>#ShutDownJNU send all student who supporting afzal guru before they became terrorist</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1872,10 +1624,8 @@
           <t>Why #ShutdownJNU .... ?? Why not #ShutdownRssNagpurOffice ..... !!!!???? साँपो का अडडा</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1884,10 +1634,8 @@
           <t>@narendramodi @BJPRajnathSingh @Swamy39 : Please put behind these traitors before its too late. We shouldn't tolerate AntiIndia #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1896,10 +1644,8 @@
           <t>today reliance will give 4×score of india mb 3g data. so i want india to bat first...#indvsuae</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -1908,10 +1654,8 @@
           <t>The concubine factory #JNU supplies the retards who become naxals/CPI leaders/Presstitutes. #ShutDownJNU https:// twitter.com/KanchanGupta/s tatus/819597065365790720 …</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1920,10 +1664,8 @@
           <t>#ShutDownJNU fuck antinational bastards</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1932,10 +1674,8 @@
           <t>#indvspak har gaye na hum ,,,yh sab @impkstani tumhari wja sy howa ha !</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1944,10 +1684,8 @@
           <t>JawaharlalNehruUniversity became Sex/Naxalite Adda @HRDMinistry Arms , Rape, AntiNational Courses / Trainings #ShutDownJNU @HMOIndia pic.twitter.com/jV4wPVEfxY</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1956,10 +1694,8 @@
           <t>Hope the nationalist JNU alumini return their degrees, and refuse to accept the same till this anti-nationals are jailed #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1968,10 +1704,8 @@
           <t>afridi..feeling sorry for u :( .....chal koi na next time :) #indvspak</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1980,10 +1714,8 @@
           <t>Who has indoctrinated &amp; brainwashed these obdurate &amp; cantankerous dimwits? Expel &amp; expunge anything that promotes Sedition. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1992,10 +1724,8 @@
           <t>#ShutDownJNU #JNURow This time if anti-nationals like #Congress #Rahul #Kejriwal #AAP #CPI come to support send them also to Pakistan... 5/n</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2004,10 +1734,8 @@
           <t>SHAME on people Like them! #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -2016,10 +1744,8 @@
           <t>@policybazaar_in kapil dev made us proud #comparekar #indvspak</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2028,10 +1754,8 @@
           <t>#spectrum4 #cwc15 with ashu, ahti and shah. :d #indvspak http://t.co/niztfhyspy</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2040,10 +1764,8 @@
           <t>Episode at #ShutDownJNU confirms wht @Swamy39 has been saying fr a long tym! JNU has bcm a bunch of naxalites&amp; antinationals. Boot them out!</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2052,10 +1774,8 @@
           <t>Hizbul supporters of JNU and their sleeper cells across central universities hell bent on creating chaos. #JNU #ShutDownJNU pic.twitter.com/lNNgw1td76</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2064,10 +1784,8 @@
           <t>not much excited about #indvsuae. . . only excitement is to watch the new @starsportsindia ad. @icc #cwc15</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2076,10 +1794,8 @@
           <t>#ShutdownJNU Delhi police should provide police protection to VC.</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2088,10 +1804,8 @@
           <t>#ShutDownJNU #ShutDownJNU #ShutDownJNU And arrest those faces shown on media</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2100,10 +1814,8 @@
           <t>Who are these #traitors to associate dalits with #terrorist like afzal guru n yakub menon Its an insult to #dalits n INDIA #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2112,10 +1824,8 @@
           <t>keep calm and believe #kohli ! ! inneram payan veri yethittu iruppan! ! #indvspak</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2124,10 +1834,8 @@
           <t>#ShutDownJNU What is VC of JNU doing ? he should first restricate them and Police must lodge FIR against all... http:// fb.me/4I393mgHR</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2136,10 +1844,8 @@
           <t>A simple solution: stop all the govt aids. Stop every single tax penny awarded to #JNU Let the motherfuckers pay it themselves. #shutdownjnu</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2148,10 +1854,8 @@
           <t>JNU should now start conducting an extra test 'patrotism test' at the time of admsns. spcly for 'peaceful' religion people. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2160,10 +1864,8 @@
           <t>#ShutDownJNU : we will prove ourselves to be eunuchs if we simply let go these perpetrators of sedition.</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2172,10 +1874,8 @@
           <t>How can these students roam freely ? Why aren't they behind bars ? #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2184,10 +1884,8 @@
           <t>shoaib akhtar all praises for dhoni view here: http://t.co/p7vhnhbjvl #cwc15 #indvspak #pakvsind #wewillbringitback http://t.co/ybvnca69jw</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2196,10 +1894,8 @@
           <t>Please do that... Asap #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -2208,10 +1904,8 @@
           <t>didn't get to live tweet during #indvsuae due to college. but luckily i have a holiday on #ind vs #wi , which means i can live tweet! #cwc15</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -2220,10 +1914,8 @@
           <t>#ShutDownJNU trending worldwide at no.5 bhakt power</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -2232,10 +1924,8 @@
           <t>This happens when freedom of speech is taken for granted. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2244,10 +1934,8 @@
           <t>tmrw its mauka mauka in waca waca !!! #indvsuae</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2256,10 +1944,8 @@
           <t>dhoni - meri to batting hi nahi ayegi 😭😭😭😭😭😭😭😭😭😭 #indvsuae</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B158" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -2268,10 +1954,8 @@
           <t>I agree... #ShutDownJNU https:// twitter.com/abhijeetsinger /status/697494818625159168 …</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -2280,10 +1964,8 @@
           <t>“@djnoreenkhan: this will be an absolute breeze for india #indvsuae”gud job u hav india team in bbc asian network</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2292,10 +1974,8 @@
           <t>What to say about #ShutDownJNU Just Shut Up.</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -2304,10 +1984,8 @@
           <t>#indvspak dil dil pakistan!! jan jan pakistan!! pakistan make us proud!!!! 💚</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2316,10 +1994,8 @@
           <t>india 19/0 after 5 overs. #indvsuae dhawan getting into groove. http://t.co/6xjho8cvcx</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2328,10 +2004,8 @@
           <t>is over mei sure #indiawin #indvspak #cwc15 #india #wewontgiveitback</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2340,10 +2014,8 @@
           <t>napmindia: .NarmadaBachao activist Mansaram extends support to fasting students #StandWithJNU #FightBackJNU pic.twitter.com/bJjg4yuDCB</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2352,10 +2024,8 @@
           <t>#ShutdownJNU @rajnathsingh pls shut this pak occupied delhi campus. Pls use tax payers money for some national cause.</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2364,10 +2034,8 @@
           <t>. @ArvindKejriwal &amp; . @AamAadmiParty - does this come under outrage or Dharna category of you guys. Check and confirm. #JNU #ShutdownJNU https:// twitter.com/capt_ivane/sta tus/795529233762091008 …</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -2376,10 +2044,8 @@
           <t>Any of these boys was my son, I would've shot him myself #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2388,10 +2054,8 @@
           <t>Anti-national JNU will never raise voice against something if that is not related to Hinduism. This clearly expose their agenda #ShutDownJNU https:// twitter.com/Aalok_Pradhan/ status/790096114217168896 …</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2400,10 +2064,8 @@
           <t>feb 14: love day feb 15: pakistan ke loude #indvspak</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2412,10 +2074,8 @@
           <t>@narendramodi Ji, Indian University,Indian students but support Terrorists ! Shame on JNU Students #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2424,10 +2084,8 @@
           <t>In solidarity with comrades in #JNU More power to you &lt;3 #StandWithJNU #JNUonHungerStrike #FightBackJNU #struggle https:// twitter.com/prantadarshi/s tatus/729119175545741312 …</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -2436,10 +2094,8 @@
           <t>rt @vivekvikramvvs: #indvspak #bleedblue rega jha #mustwatchmsg team india #cwc2015 #kohli kohli is awesome... @newsologic #newsologic v</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B173" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -2448,10 +2104,8 @@
           <t>now pakistan can hire terrorists from an institution like JNU .. what else they need. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2460,10 +2114,8 @@
           <t>kajru is getting relief now#indvspak http://t.co/xwqi4mxpq4</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2472,10 +2124,8 @@
           <t>Comon Modiji don't let pride of the nationalist fall Stop acting like manmohan Let the world see what Modi is @BJPRajnathSingh #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2484,10 +2134,8 @@
           <t>forecast: hindustan zindabad hai, zindabad tha aur zindabad rahega and then dhoni uproots stump in sunny deol's style. #indvspak</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -2496,10 +2144,8 @@
           <t>Crime and punishment: Why the entire JNU administration now faces a crisis of credibility http:// scroll.in/article/807677 /crime-and-punishment-why-the-entire-jnu-administration-now-faces-a-crisis-of-credibility … #StandWithJNU</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -2508,10 +2154,8 @@
           <t>bhaag bhaag well stoped ashwin! #indvspak</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B179" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -2520,10 +2164,8 @@
           <t>The selfishness n vote bank politics by muslim league led 2 d partn of nation am sighting d same if such traitors r nt stopped #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2532,10 +2174,8 @@
           <t>4 wicket ab to jeet hi jaega india... #indvspak</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2544,10 +2184,8 @@
           <t>rt garbagebingags: dear pakistan 6-0 hahahhahaha....!!! :d #bleedblue #indvspak http://t.co/yb9mfez1ty</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -2556,10 +2194,8 @@
           <t>@hstapanghosh If its becoming a high level anti National Madarsa then #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2568,10 +2204,8 @@
           <t>world's smallest car, maruti suzuki alto!! #indvspak</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -2580,10 +2214,8 @@
           <t>chandu532: ddnewslive: #uhf #indvspak: ravindra jadeja takes umar akmal's (0) wicket. pakistan 105/5 in 25 overs| #cwc15 #worldcup2015</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -2592,10 +2224,8 @@
           <t>malbarisss will be confused about who to support their home country or their actual home country .. #indvsuae</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -2604,10 +2234,8 @@
           <t>medhanarmada: RT napmindia: .NarmadaBachao activist Mansaram extends support to fasting students #StandWithJNU #Fi … pic.twitter.com/bJjg4yuDCB</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -2616,10 +2244,8 @@
           <t>keeping in view #petrolpricehike @msdhoni decided to lose all matches against uae in future. #indvsuae</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -2628,10 +2254,8 @@
           <t>pakistan has won the toss,what do u select misbah? misbah:kohli dhoni:chutiye gali cricket nahi hai.teams pehle se decided hai #indvspak</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -2640,10 +2264,8 @@
           <t>Day12: End the Media Blackout in JNU. #FightBackJNU #WeAreJNU #StandWithJNU @Shehla_Rashid @kanhaiyajnusu pic.twitter.com/LVCYMoZwSc</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -2652,10 +2274,8 @@
           <t>We will keep tweeting &amp; government will keep watching. Nothing is going to happen. You know, we are so tolerant. But please #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -2664,10 +2284,8 @@
           <t>ekk aur.... yayyyyyy kat lo bhencho #indvspak</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2676,10 +2294,8 @@
           <t>Anything &amp; everything that has got something to do with the word 'Jawaharlal Nehru' has proved to be insidious for India. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2688,10 +2304,8 @@
           <t>#ShutDownJNU : Parties supporting these traitors should be banned and supporters arrested for the act of sedition.</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2700,10 +2314,8 @@
           <t>Clear intentions: throttle the govt universities and make private profiters flourish #standwithjnu https:// twitter.com/EconomicTimes/ status/743658834074296321 …</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B195" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -2712,10 +2324,8 @@
           <t>What Are Vice Chancellors Made Of? http:// lsh.re/1285Z #JNU #StandWithJNU #HCU #WeAreJNU #India #Education #SeditionRow #JNURow</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -2724,10 +2334,8 @@
           <t>puli ra vaaduuu..puli. 100 for kohli. king kohli. legend #indvspak #cwc15</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2736,10 +2344,8 @@
           <t>@timesofindia who is "ashwin nehra" in team india..?...kuchh bhi haan...;)) @ashwinravi99 #indvsuae #indwins #wc2015 http://t.co/z00nygjwp2</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2748,10 +2354,8 @@
           <t>Craziest trend I have ever seen #ShutDownJNU @barsha_c14 @mitra_shreya</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -2760,10 +2364,8 @@
           <t>#ShutDownJNU also because it has @Shehla_Rashid Madam pehle Wiki/Google kijiye fir boliye. Too much difference in India &amp; Venezuela matter.</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2772,10 +2374,8 @@
           <t>who the fu*k cares what JNU is doing? #ShutDownJNU @ArvindKejriwal</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2784,10 +2384,8 @@
           <t>arvind kejriwal takes charge as the chief minister... #aapkacm #indvspak #indwins #pakvsind #aapkacm http://t.co/hqazjjxogl</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2796,10 +2394,8 @@
           <t>#ShutDownJNU . #FlashpointAfzal The protesting leaders of students Union of JNU even don't know about the trial proceeding's of AfzalG</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2808,10 +2404,8 @@
           <t>Used condoms....wine bottles...anti national slogans ....&amp; nw weapons #ShutDownJNU pic.twitter.com/pBkytnwxkW</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2820,10 +2414,8 @@
           <t>#ShutDownJNU this stupid antinational university need to be shut down</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2832,10 +2424,8 @@
           <t>keep calm... ghanta calm its india vs. pakistan! #cwc15 #indvspak</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2844,10 +2434,8 @@
           <t>rt @k_sundarpandi: waiting for new #maukamauka add,finish it quickly #india #indvsuae</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2856,10 +2444,8 @@
           <t>RT iNirajVerma: #ShutDownJNU where is #Intolerance bunch of group for reaction abt who un established Indian democ… https:// twitter.com/TimesNow/statu s/697436416658112512 …</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -2868,10 +2454,8 @@
           <t>These rats feeds on our hard earned Taxes and they want to break down our beloved country #ShutDownJNU and strip them of all subsidy</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2880,10 +2464,8 @@
           <t>@mahekchahal @thegautamgulati countdown begin for big match #indvspak or pak ka mauka nhi ayega . http://t.co/bff9qre6rs</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2892,10 +2474,8 @@
           <t>#ShutDownJNU asap. no need to waste tax payers money on these anti Nationals. @narendramodi @PMOIndia @smritiirani</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2904,10 +2484,8 @@
           <t>pakistan scoring in morse code. dot dot dot dot 4 dot dot dot #indvspak</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2916,10 +2494,8 @@
           <t>JNUTA Relay Hunger Strike, Day II #StandWithJNU http:// fb.me/7MDL0baev</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2928,10 +2504,8 @@
           <t>Irony these bunch of idiots don't even know why they're supporting Afzal Guru. Bloody so called intellectual #ShutdownJNU #FlashpointAfzal</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2940,10 +2514,8 @@
           <t>most hundreds in won odis 33 srt 25 ponting 24 jayasuriya 20 vkohli 18 ganguly 17 h amla #cwc15 #indvspak - rizwan_r-s"</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2952,10 +2524,8 @@
           <t>awesome spell from @ashwinravi99 #ind 25 runs &amp;amp; 4 wickets cool #cwc15 @cricketworldcup @bcci #indvsuae #uae</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B216" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -2964,10 +2534,8 @@
           <t>misbah is middling it well aam. inime nee vayasuku vandha ena varlina ena. 😂 #indvspak #wontgiveitback #cwc15</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B217" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2976,10 +2544,8 @@
           <t>With these kinds of acts..we are just easing the job of ISIS! Though don't #ShutDownJNU but take necessary actions agnst this mishappening!</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2988,10 +2554,8 @@
           <t>@bcci #indvsuae http://t.co/bnmgzny1px....good news best of luuk team india.</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -3000,10 +2564,8 @@
           <t>@smritiirani these goons can be booked under Section 124-A #ShutDownJNU @Swamy39</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -3012,10 +2574,8 @@
           <t>ye uae ki team lull hai. #indvsuae</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -3024,10 +2584,8 @@
           <t>These days it is easy to glorify terrorist on the pretext of free speech #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -3036,10 +2594,8 @@
           <t>#ShutDownJNU These traitors should be shot in the head. There are these eunuchs and then there is a real Indian Hanumanthappa.</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -3048,10 +2604,8 @@
           <t>tt uk 08:24 1.#thedress 2.#ausvnz 3.#nzvaus 4.#watson27 5.#indvsuae 6.jihadi john 7.boris nemtsov 8.spock 9.starc 10.cage</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3060,10 +2614,8 @@
           <t>Where r people who returned awards for #Intorance India now all r quite #shame pls take action @narendramodi @ArvindKejriwal #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -3072,10 +2624,8 @@
           <t>#ShutDownJNU do it..</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3084,10 +2634,8 @@
           <t>shout it loud. kohli , kohli #indvspak #cwc15</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3096,10 +2644,8 @@
           <t>Let's Arnab decide fate of JNU on timesnow #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B228" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -3108,10 +2654,8 @@
           <t>#ShutDownJNU @TimesNow kindly expose students &amp; professor of JNU, there is definitely pakistani link. Tax payers in burden</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -3120,10 +2664,8 @@
           <t>modi n nawaz k phone kya h, bas ab to match fix hgya! #indvspak #justpakistanithings</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3132,10 +2674,8 @@
           <t>revenge #maukamauka | india #cwc2015 | #wontgiveitback | social message ad https://t.co/iroh2dw4rz #indvsuae</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3144,10 +2684,8 @@
           <t>Son of a Dalit, Muslim and Terrorist we will help you but Son of a Soldier, we the students of JNU dnt care #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -3156,10 +2694,8 @@
           <t>#indvsuae : #uae all out 102... #ashwin 4, jadeja n umesh 2, bhuvi-mohit 1 wickets each</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -3168,10 +2704,8 @@
           <t>@jyotsnadevi33 @timesofindia This is the culture #JNU imparts. True to the parson after whom it's named. #ShutDownJNU .</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -3180,10 +2714,8 @@
           <t>#ShutDownJNU @narendramodi ji in a healthy democracy opposition's voice shld be respected not suppresd</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -3192,10 +2724,8 @@
           <t>#ShutDownJNU #FlashpointAfzal When ABVP had opposed rohit Vemula 4 supporting afzal, gaddar Aaptards &amp; Chor RAGA gave it a caste twist.</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3204,10 +2734,8 @@
           <t>If it's #ShutDownJNU then just punish the CULPRITS. Why such disgusting #ShutDownJNU ??? Fools.</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -3216,10 +2744,8 @@
           <t>Sonia's sleeper cell to trigger unrest in INDIA. #Presstitutes #AwardWapsi gang #SeditionGang #shutDownJNU @eparitosh</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -3228,10 +2754,8 @@
           <t>@starof_eyes : will be online tomorrow during #indvspak ! maukaa.ṁaukaa.ṁaukaa</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B239" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -3240,10 +2764,8 @@
           <t>These people feeding on taxpayers money and have total disrespect for the nation Hang these rodents #ShutDownJNU https:// twitter.com/MatruBhakt/sta tus/697492951149064192 …</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -3252,10 +2774,8 @@
           <t>well said Dr. @RakeshSinha01 . we are with u #ShutDownJNU https:// twitter.com/RakeshSinha01/ status/697478911345631232 …</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -3264,10 +2784,8 @@
           <t>I do NOT agree with the top trending #ShutDownJNU . Rather #OpenUpJNU . Its sheer nuisance is the best example of India's unlimited tolerance.</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -3276,10 +2794,8 @@
           <t>dear #starsports team, please dont wait for the match to end, start showing us the next mauka ad :d ;) :d #indvsuae</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3288,10 +2804,8 @@
           <t>@OfficeOfRG #shutdownJNU u want to rule India by supporting antinational elements that is not possible</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3300,10 +2814,8 @@
           <t>According to me jnu not any university jnu is a House of Terrorist and traitor.so we want #shutdownjnu</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3312,10 +2824,8 @@
           <t>#ShutDownJNU why BJP is so Defen mod ? HM pls do smtg now what's goin onnnnnn</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -3324,10 +2834,8 @@
           <t>#indvspak mcenroe vs connors, jordan vs johnson, coke vs pepsi, brazil vs argentina, patriots vs packers, bmw vs audi, india vs pakistan.</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3336,10 +2844,8 @@
           <t>best of luck pakistan for today #pakvsind jeetay ga bhai jeetay ga pakistan jeetay ga 🚩 #pakvind #indvspak #cwc15</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3348,10 +2854,8 @@
           <t>#ShutDownJNU because Indian democracy feel threatened.. Bravo...</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -3360,10 +2864,8 @@
           <t>These people are supported by congress and i am sure that congress party will not give any statements against them. #ShutDownJNU</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>OAG</t>
-        </is>
+      <c r="B250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3372,10 +2874,8 @@
           <t>get back to seats. #indvsuae #cwc15 #cwcfantasy</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B251" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3384,10 +2884,8 @@
           <t>eeeeeeeee😁 bhuvi is back wit a wicket😆😆 @bhuviofficial 😇 #indvsuae #cwc15</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
+      <c r="B252" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3396,10 +2894,8 @@
           <t>Look at the condition of the reviews of the best authors of india !! One ishtaaar!!! #ShutDownJNU pic.twitter.com/aihKF4BQ0T</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>CAG</t>
-        </is>
+      <c r="B253" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/output_bert.xlsx
+++ b/output/output_bert.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">

--- a/output/output_bert.xlsx
+++ b/output/output_bert.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>